--- a/クリックポスト発送情報/20200831231124/英子日本发货表格8.31.xlsx
+++ b/クリックポスト発送情報/20200831231124/英子日本发货表格8.31.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>序号</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120315</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120304</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120293</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120282</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120271</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>628586120260</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -200,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -334,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,19 +440,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,7 +1487,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -1485,10 +1514,12 @@
       <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="31"/>
+      <c r="K3" s="32" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="19"/>
@@ -1498,22 +1529,24 @@
       <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="32" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
         <v>30</v>
@@ -1521,11 +1554,13 @@
       <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="32" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="20" t="s">
@@ -1550,7 +1585,7 @@
       <c r="I6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="20" t="s">
@@ -1575,7 +1610,9 @@
       <c r="I7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="21" t="s">
@@ -1600,7 +1637,9 @@
       <c r="I8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="10" spans="1:181" ht="121.95" customHeight="1"/>
